--- a/7.単体テスト/単体テスト_月表示.xlsx
+++ b/7.単体テスト/単体テスト_月表示.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\結合用２\groupA\7.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F830B5-D8D7-4DC1-B115-EB3390C6208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F9713-4BA7-4A66-87E2-1D8924896084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD3E57D8-EF1E-4638-8A09-CD32B17A4761}"/>
   </bookViews>
   <sheets>
     <sheet name="月表示" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">月表示!$A$2:$I$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">#REF!</definedName>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>完成率</t>
   </si>
@@ -832,6 +829,16 @@
   <si>
     <t>セーブ</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -937,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1223,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1225,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,59 +1333,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1377,25 +1433,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="改訂履歴"/>
-      <sheetName val="記入"/>
-      <sheetName val="アカウント"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1700,11 +1737,11 @@
   </sheetPr>
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1721,481 +1758,579 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
-      <c r="C5" s="28">
+      <c r="G4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="22">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
+      <c r="C5" s="27">
         <v>1.2</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
-      <c r="C6" s="28">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="39"/>
+      <c r="C6" s="27">
         <v>1.3</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="28">
+      <c r="G6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="22">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="39"/>
+      <c r="C7" s="27">
         <v>1.4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30" t="s">
+      <c r="G7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="22">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>2.1</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
-      <c r="C9" s="28">
+      <c r="G8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39"/>
+      <c r="C9" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
-      <c r="C10" s="28">
+      <c r="G9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39"/>
+      <c r="C10" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
-      <c r="C11" s="28">
+      <c r="G10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="27">
         <v>2.4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
-      <c r="C12" s="28">
+      <c r="G11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="39"/>
+      <c r="C12" s="27">
         <v>2.5</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
-      <c r="C13" s="28">
+      <c r="G12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="27">
         <v>2.6</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="28">
+      <c r="G13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="27">
         <v>2.7</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="28">
+      <c r="G14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="39"/>
+      <c r="C15" s="27">
         <v>2.8</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="2:9" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30" t="s">
+      <c r="G15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>3.1</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
-      <c r="C17" s="28">
+      <c r="G16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="39"/>
+      <c r="C17" s="27">
         <v>3.2</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="28">
+      <c r="G17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="39"/>
+      <c r="C18" s="27">
         <v>3.3</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:9" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="28">
+      <c r="G18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="39"/>
+      <c r="C19" s="27">
         <v>3.4</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="28">
+      <c r="G19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="39"/>
+      <c r="C20" s="27">
         <v>3.5</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="28">
+      <c r="G20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="39"/>
+      <c r="C21" s="27">
         <v>3.6</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="2:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
-      <c r="C22" s="28">
+      <c r="G21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="39"/>
+      <c r="C22" s="27">
         <v>3.7</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="28">
+      <c r="G22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="2:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="39"/>
+      <c r="C23" s="27">
         <v>3.8</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="30" t="s">
+      <c r="G23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
-      <c r="C25" s="28">
+      <c r="G24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="2:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="39"/>
+      <c r="C25" s="27">
         <v>4.2</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="2:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
-      <c r="C26" s="28">
+      <c r="G25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="39"/>
+      <c r="C26" s="27">
         <v>4.3</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="2:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="29" t="s">
+      <c r="G26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="2:9" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="22"/>
+      <c r="G27" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="38"/>
       <c r="C28" s="21">
         <v>5.2</v>
       </c>
@@ -2208,11 +2343,15 @@
       <c r="F28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="14"/>
@@ -2222,25 +2361,22 @@
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="32" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2"/>
+    <row r="33" spans="7:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9">
         <f>COUNTIF($G$4:$G$28,"=○")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G34" s="8" t="s">
         <v>2</v>
       </c>
@@ -2250,26 +2386,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="6">
         <f>COUNTBLANK($G$4:$G$28)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G36" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="3">
         <f>I33/(I33+I34+I35)</f>
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
